--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Il11-Il11ra1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H2">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I2">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J2">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.433127333333333</v>
+        <v>3.257987</v>
       </c>
       <c r="N2">
-        <v>10.299382</v>
+        <v>9.773961</v>
       </c>
       <c r="O2">
-        <v>0.06816425866497147</v>
+        <v>0.06563198179863573</v>
       </c>
       <c r="P2">
-        <v>0.06816425866497146</v>
+        <v>0.06563198179863572</v>
       </c>
       <c r="Q2">
-        <v>1.391802409066889</v>
+        <v>0.65205351818</v>
       </c>
       <c r="R2">
-        <v>12.526221681602</v>
+        <v>5.868481663620001</v>
       </c>
       <c r="S2">
-        <v>0.01229720276132387</v>
+        <v>0.006175725458564906</v>
       </c>
       <c r="T2">
-        <v>0.01229720276132387</v>
+        <v>0.006175725458564907</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H3">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I3">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J3">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>118.19154</v>
       </c>
       <c r="O3">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="P3">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="Q3">
-        <v>15.97176122832667</v>
+        <v>7.8849516052</v>
       </c>
       <c r="R3">
-        <v>143.74585105494</v>
+        <v>70.96456444680001</v>
       </c>
       <c r="S3">
-        <v>0.1411177226024941</v>
+        <v>0.07467990741573374</v>
       </c>
       <c r="T3">
-        <v>0.1411177226024941</v>
+        <v>0.07467990741573377</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H4">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I4">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J4">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.724305666666666</v>
+        <v>1.833856</v>
       </c>
       <c r="N4">
-        <v>8.172916999999998</v>
+        <v>5.501568000000001</v>
       </c>
       <c r="O4">
-        <v>0.0540907045136633</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="P4">
-        <v>0.05409070451366329</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="Q4">
-        <v>1.104443506387444</v>
+        <v>0.36702793984</v>
       </c>
       <c r="R4">
-        <v>9.939991557486998</v>
+        <v>3.303251458560001</v>
       </c>
       <c r="S4">
-        <v>0.009758257097413301</v>
+        <v>0.003476192872022511</v>
       </c>
       <c r="T4">
-        <v>0.009758257097413297</v>
+        <v>0.003476192872022512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.4054036666666667</v>
+        <v>0.20014</v>
       </c>
       <c r="H5">
-        <v>1.216211</v>
+        <v>0.6004200000000001</v>
       </c>
       <c r="I5">
-        <v>0.1804054353728813</v>
+        <v>0.09409628186320101</v>
       </c>
       <c r="J5">
-        <v>0.1804054353728812</v>
+        <v>0.09409628186320104</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.810892333333333</v>
+        <v>5.151212</v>
       </c>
       <c r="N5">
-        <v>14.432677</v>
+        <v>15.453636</v>
       </c>
       <c r="O5">
-        <v>0.09551958828752875</v>
+        <v>0.1037709027767496</v>
       </c>
       <c r="P5">
-        <v>0.09551958828752874</v>
+        <v>0.1037709027767495</v>
       </c>
       <c r="Q5">
-        <v>1.950353391871889</v>
+        <v>1.03096356968</v>
       </c>
       <c r="R5">
-        <v>17.553180526847</v>
+        <v>9.27867212712</v>
       </c>
       <c r="S5">
-        <v>0.01723225291165</v>
+        <v>0.009764456116879854</v>
       </c>
       <c r="T5">
-        <v>0.01723225291164999</v>
+        <v>0.009764456116879856</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I6">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J6">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.433127333333333</v>
+        <v>3.257987</v>
       </c>
       <c r="N6">
-        <v>10.299382</v>
+        <v>9.773961</v>
       </c>
       <c r="O6">
-        <v>0.06816425866497147</v>
+        <v>0.06563198179863573</v>
       </c>
       <c r="P6">
-        <v>0.06816425866497146</v>
+        <v>0.06563198179863572</v>
       </c>
       <c r="Q6">
-        <v>5.318644351079556</v>
+        <v>5.047314728235333</v>
       </c>
       <c r="R6">
-        <v>47.86779915971601</v>
+        <v>45.425832554118</v>
       </c>
       <c r="S6">
-        <v>0.04699262450942621</v>
+        <v>0.04780409766295875</v>
       </c>
       <c r="T6">
-        <v>0.0469926245094262</v>
+        <v>0.04780409766295874</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I7">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J7">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>118.19154</v>
       </c>
       <c r="O7">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="P7">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="Q7">
         <v>61.03461028694667</v>
@@ -883,10 +883,10 @@
         <v>549.31149258252</v>
       </c>
       <c r="S7">
-        <v>0.5392683424511129</v>
+        <v>0.5780706431195597</v>
       </c>
       <c r="T7">
-        <v>0.5392683424511129</v>
+        <v>0.5780706431195597</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I8">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J8">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.724305666666666</v>
+        <v>1.833856</v>
       </c>
       <c r="N8">
-        <v>8.172916999999998</v>
+        <v>5.501568000000001</v>
       </c>
       <c r="O8">
-        <v>0.0540907045136633</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="P8">
-        <v>0.05409070451366329</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="Q8">
-        <v>4.220528846671777</v>
+        <v>2.841032944042667</v>
       </c>
       <c r="R8">
-        <v>37.984759620046</v>
+        <v>25.56929649638401</v>
       </c>
       <c r="S8">
-        <v>0.03729027816695274</v>
+        <v>0.02690797456337391</v>
       </c>
       <c r="T8">
-        <v>0.03729027816695273</v>
+        <v>0.02690797456337391</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>4.647638000000001</v>
       </c>
       <c r="I9">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117116</v>
       </c>
       <c r="J9">
-        <v>0.6894027079557307</v>
+        <v>0.7283659026117117</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>4.810892333333333</v>
+        <v>5.151212</v>
       </c>
       <c r="N9">
-        <v>14.432677</v>
+        <v>15.453636</v>
       </c>
       <c r="O9">
-        <v>0.09551958828752875</v>
+        <v>0.1037709027767496</v>
       </c>
       <c r="P9">
-        <v>0.09551958828752874</v>
+        <v>0.1037709027767495</v>
       </c>
       <c r="Q9">
-        <v>7.453095340769556</v>
+        <v>7.980322879085334</v>
       </c>
       <c r="R9">
-        <v>67.07785806692601</v>
+        <v>71.822905911768</v>
       </c>
       <c r="S9">
-        <v>0.06585146282823881</v>
+        <v>0.07558318726581936</v>
       </c>
       <c r="T9">
-        <v>0.06585146282823881</v>
+        <v>0.07558318726581936</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H10">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I10">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J10">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.433127333333333</v>
+        <v>3.257987</v>
       </c>
       <c r="N10">
-        <v>10.299382</v>
+        <v>9.773961</v>
       </c>
       <c r="O10">
-        <v>0.06816425866497147</v>
+        <v>0.06563198179863573</v>
       </c>
       <c r="P10">
-        <v>0.06816425866497146</v>
+        <v>0.06563198179863572</v>
       </c>
       <c r="Q10">
-        <v>0.5008520804053332</v>
+        <v>0.83205729993</v>
       </c>
       <c r="R10">
-        <v>4.507668723648</v>
+        <v>7.48851569937</v>
       </c>
       <c r="S10">
-        <v>0.004425254293319211</v>
+        <v>0.007880576220959785</v>
       </c>
       <c r="T10">
-        <v>0.00442525429331921</v>
+        <v>0.007880576220959785</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H11">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I11">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J11">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>118.19154</v>
       </c>
       <c r="O11">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="P11">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="Q11">
-        <v>5.74757579584</v>
+        <v>10.0616458002</v>
       </c>
       <c r="R11">
-        <v>51.72818216256</v>
+        <v>90.5548122018</v>
       </c>
       <c r="S11">
-        <v>0.05078242751060299</v>
+        <v>0.0952958007140214</v>
       </c>
       <c r="T11">
-        <v>0.05078242751060299</v>
+        <v>0.09529580071402141</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H12">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I12">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J12">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.724305666666666</v>
+        <v>1.833856</v>
       </c>
       <c r="N12">
-        <v>8.172916999999998</v>
+        <v>5.501568000000001</v>
       </c>
       <c r="O12">
-        <v>0.0540907045136633</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="P12">
-        <v>0.05409070451366329</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="Q12">
-        <v>0.3974435050986665</v>
+        <v>0.4683484838400001</v>
       </c>
       <c r="R12">
-        <v>3.576991545887999</v>
+        <v>4.21513635456</v>
       </c>
       <c r="S12">
-        <v>0.003511592835685827</v>
+        <v>0.004435819414339109</v>
       </c>
       <c r="T12">
-        <v>0.003511592835685826</v>
+        <v>0.004435819414339109</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.145888</v>
+        <v>0.25539</v>
       </c>
       <c r="H13">
-        <v>0.437664</v>
+        <v>0.76617</v>
       </c>
       <c r="I13">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="J13">
-        <v>0.06492044922060128</v>
+        <v>0.1200721965876032</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.810892333333333</v>
+        <v>5.151212</v>
       </c>
       <c r="N13">
-        <v>14.432677</v>
+        <v>15.453636</v>
       </c>
       <c r="O13">
-        <v>0.09551958828752875</v>
+        <v>0.1037709027767496</v>
       </c>
       <c r="P13">
-        <v>0.09551958828752874</v>
+        <v>0.1037709027767495</v>
       </c>
       <c r="Q13">
-        <v>0.7018514607253333</v>
+        <v>1.31556803268</v>
       </c>
       <c r="R13">
-        <v>6.316663146528</v>
+        <v>11.84011229412</v>
       </c>
       <c r="S13">
-        <v>0.006201174580993251</v>
+        <v>0.01246000023828293</v>
       </c>
       <c r="T13">
-        <v>0.00620117458099325</v>
+        <v>0.01246000023828293</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H14">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I14">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J14">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.433127333333333</v>
+        <v>3.257987</v>
       </c>
       <c r="N14">
-        <v>10.299382</v>
+        <v>9.773961</v>
       </c>
       <c r="O14">
-        <v>0.06816425866497147</v>
+        <v>0.06563198179863573</v>
       </c>
       <c r="P14">
-        <v>0.06816425866497146</v>
+        <v>0.06563198179863572</v>
       </c>
       <c r="Q14">
-        <v>0.5035596734955555</v>
+        <v>0.3982161490403333</v>
       </c>
       <c r="R14">
-        <v>4.532037061460001</v>
+        <v>3.583945341363</v>
       </c>
       <c r="S14">
-        <v>0.004449177100902183</v>
+        <v>0.003771582456152286</v>
       </c>
       <c r="T14">
-        <v>0.004449177100902182</v>
+        <v>0.003771582456152286</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H15">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I15">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J15">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>118.19154</v>
       </c>
       <c r="O15">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="P15">
-        <v>0.7822254485338365</v>
+        <v>0.793654179920784</v>
       </c>
       <c r="Q15">
-        <v>5.778647038466667</v>
+        <v>4.815425384646667</v>
       </c>
       <c r="R15">
-        <v>52.00782334620001</v>
+        <v>43.33882846182</v>
       </c>
       <c r="S15">
-        <v>0.05105695596962655</v>
+        <v>0.04560782867146913</v>
       </c>
       <c r="T15">
-        <v>0.05105695596962655</v>
+        <v>0.04560782867146914</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H16">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I16">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J16">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.724305666666666</v>
+        <v>1.833856</v>
       </c>
       <c r="N16">
-        <v>8.172916999999998</v>
+        <v>5.501568000000001</v>
       </c>
       <c r="O16">
-        <v>0.0540907045136633</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="P16">
-        <v>0.05409070451366329</v>
+        <v>0.03694293550383072</v>
       </c>
       <c r="Q16">
-        <v>0.3995920741677777</v>
+        <v>0.2241479398826667</v>
       </c>
       <c r="R16">
-        <v>3.596328667509999</v>
+        <v>2.017331458944</v>
       </c>
       <c r="S16">
-        <v>0.003530576413611433</v>
+        <v>0.002122948654095184</v>
       </c>
       <c r="T16">
-        <v>0.003530576413611433</v>
+        <v>0.002122948654095185</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,22 +1461,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.1466766666666667</v>
+        <v>0.1222276666666667</v>
       </c>
       <c r="H17">
-        <v>0.44003</v>
+        <v>0.366683</v>
       </c>
       <c r="I17">
-        <v>0.06527140745078687</v>
+        <v>0.05746561893748399</v>
       </c>
       <c r="J17">
-        <v>0.06527140745078687</v>
+        <v>0.057465618937484</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.810892333333333</v>
+        <v>5.151212</v>
       </c>
       <c r="N17">
-        <v>14.432677</v>
+        <v>15.453636</v>
       </c>
       <c r="O17">
-        <v>0.09551958828752875</v>
+        <v>0.1037709027767496</v>
       </c>
       <c r="P17">
-        <v>0.09551958828752874</v>
+        <v>0.1037709027767495</v>
       </c>
       <c r="Q17">
-        <v>0.7056456511455556</v>
+        <v>0.6296206232653333</v>
       </c>
       <c r="R17">
-        <v>6.35081086031</v>
+        <v>5.666585609387999</v>
       </c>
       <c r="S17">
-        <v>0.006234697966646698</v>
+        <v>0.005963259155767389</v>
       </c>
       <c r="T17">
-        <v>0.006234697966646698</v>
+        <v>0.00596325915576739</v>
       </c>
     </row>
   </sheetData>
